--- a/src/Magicodes.ExporterAndImporter.Tests/Models/testTemplate.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/Models/testTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitCodes\Magicodes.ExporterAndImporter\src\Magicodes.ExporterAndImporter.Tests\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BFFFCD-9640-4FB0-BB2F-8245B9B385F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF306E54-08E9-4BF8-B2FA-7E8E18EFCE75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32700" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,38 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>X.M</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>必填</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>最大长度为8</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
@@ -58,6 +90,13 @@
     <t>是否行</t>
   </si>
   <si>
+    <t>jsk123456789</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一</t>
+  </si>
+  <si>
     <t>是</t>
   </si>
   <si>
@@ -65,22 +104,20 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>jsk123456789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -135,15 +172,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -459,11 +502,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -479,115 +522,115 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30">
-      <c r="B2" s="1">
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="30">
+      <c r="B2" s="4">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="4">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4">
+        <v>18</v>
+      </c>
+      <c r="I2" s="4">
+        <v>19</v>
+      </c>
+      <c r="J2" s="4">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1">
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2444442444</v>
+      </c>
+      <c r="C3" s="4">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4">
+        <v>26</v>
+      </c>
+      <c r="G3" s="4">
+        <v>27</v>
+      </c>
+      <c r="H3" s="4">
+        <v>28</v>
+      </c>
+      <c r="I3" s="4">
+        <v>29</v>
+      </c>
+      <c r="J3" s="4">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1">
+      <c r="L3" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="1">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2444442444</v>
-      </c>
-      <c r="C3" s="1">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1">
-        <v>29</v>
-      </c>
-      <c r="J3" s="1">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"第一,第二"</formula1>
@@ -598,5 +641,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/Magicodes.ExporterAndImporter.Tests/Models/testTemplate.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/Models/testTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitCodes\Magicodes.ExporterAndImporter\src\Magicodes.ExporterAndImporter.Tests\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF306E54-08E9-4BF8-B2FA-7E8E18EFCE75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA6D53B-D484-4C87-BC3A-CE759C23B9B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32700" yWindow="3300" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="5370" windowWidth="16425" windowHeight="6750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ImportProductDto" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>产品名称</t>
   </si>
@@ -90,27 +90,51 @@
     <t>是否行</t>
   </si>
   <si>
-    <t>jsk123456789</t>
+    <t>第一</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>第二</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>MA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>第一</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>第二</t>
-  </si>
-  <si>
-    <t>否</t>
+    <t>CUF37JDI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*2*3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magicodes2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUF37JDI2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA2127888888</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -130,6 +154,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -172,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -187,6 +217,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -506,12 +539,14 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="8" width="10.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="8" width="10.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" style="1" customWidth="1"/>
     <col min="11" max="14" width="9.140625" style="1" customWidth="1"/>
@@ -556,77 +591,78 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="30">
-      <c r="B2" s="4">
+    <row r="2" spans="1:12" s="4" customFormat="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="4">
+        <v>30</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4">
-        <v>18</v>
-      </c>
-      <c r="I2" s="4">
-        <v>19</v>
-      </c>
-      <c r="J2" s="4">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1">
-      <c r="A3" s="4">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>2444442444</v>
-      </c>
-      <c r="C3" s="4">
-        <v>23</v>
-      </c>
-      <c r="D3" s="4">
-        <v>24</v>
-      </c>
       <c r="E3" s="4">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4">
-        <v>26</v>
-      </c>
-      <c r="G3" s="4">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="H3" s="4">
-        <v>28</v>
-      </c>
-      <c r="I3" s="4">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J3" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/Magicodes.ExporterAndImporter.Tests/Models/testTemplate.xlsx
+++ b/src/Magicodes.ExporterAndImporter.Tests/Models/testTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitCodes\Magicodes.ExporterAndImporter\src\Magicodes.ExporterAndImporter.Tests\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA6D53B-D484-4C87-BC3A-CE759C23B9B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B493D5-65FB-4792-BC2C-B8C672A543F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="5370" windowWidth="16425" windowHeight="6750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ImportProductDto" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>产品名称</t>
   </si>
@@ -536,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -665,6 +665,154 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:12" s="4" customFormat="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="4">
+        <v>30</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="4">
+        <v>30</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="4">
+        <v>30</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="4">
+        <v>30</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
